--- a/AnalisisTerror/datos.xlsx
+++ b/AnalisisTerror/datos.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\analisisTerror\AnalisisTerror\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C00604CD-ADC2-49D2-B843-989A86D32AC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D87248B-A3F0-4B2D-A646-526AD0A15FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="4392" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ejemplo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>BlackCat</t>
   </si>
@@ -89,12 +97,24 @@
   </si>
   <si>
     <t>media_fear</t>
+  </si>
+  <si>
+    <t>Porcentaje polaridad</t>
+  </si>
+  <si>
+    <t>Polaridad</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>DISAGREEMENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,7 +548,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -571,8 +591,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -583,8 +604,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -620,6 +644,7 @@
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Porcentaje" xfId="42" builtinId="5"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -628,12 +653,30 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -643,18 +686,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -713,8 +744,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:P5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
-  <autoFilter ref="A1:P5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:Q5" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -731,31 +762,35 @@
     <filterColumn colId="13" hiddenButton="1"/>
     <filterColumn colId="14" hiddenButton="1"/>
     <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="16">
-    <tableColumn id="1" name="book" dataDxfId="21"/>
-    <tableColumn id="2" name="palabras" dataDxfId="20"/>
-    <tableColumn id="3" name="polaridad" dataDxfId="19"/>
-    <tableColumn id="4" name="anger" dataDxfId="18"/>
-    <tableColumn id="5" name="joy" dataDxfId="17"/>
-    <tableColumn id="6" name="sadness" dataDxfId="16"/>
-    <tableColumn id="7" name="fear" dataDxfId="15"/>
-    <tableColumn id="8" name="w_polaridad" dataDxfId="14"/>
-    <tableColumn id="9" name="w_anger" dataDxfId="13"/>
-    <tableColumn id="10" name="w_joy" dataDxfId="12"/>
-    <tableColumn id="11" name="w_sadness" dataDxfId="11"/>
-    <tableColumn id="12" name="w_fear" dataDxfId="10"/>
-    <tableColumn id="13" name="media_anger" dataDxfId="3">
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="book" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="palabras" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="polaridad" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="anger" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="joy" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="sadness" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="fear" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="w_polaridad" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="w_anger" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="w_joy" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="w_sadness" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="w_fear" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="media_anger" dataDxfId="8">
       <calculatedColumnFormula>Tabla1[[#This Row],[anger]]/Tabla1[[#This Row],[w_anger]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="media_joy" dataDxfId="2">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="media_joy" dataDxfId="7">
       <calculatedColumnFormula>Tabla1[[#This Row],[joy]]/Tabla1[[#This Row],[w_joy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="media_sadness" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="media_sadness" dataDxfId="6">
       <calculatedColumnFormula>Tabla1[[#This Row],[sadness]]/Tabla1[[#This Row],[w_sadness]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="media_fear" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="media_fear" dataDxfId="1">
       <calculatedColumnFormula>Tabla1[[#This Row],[fear]]/Tabla1[[#This Row],[w_fear]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{0EB8F919-4E79-4480-9238-531D88C595BA}" name="Porcentaje polaridad" dataDxfId="0" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>Tabla1[[#This Row],[w_polaridad]]/Tabla1[[#This Row],[palabras]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -763,16 +798,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="R2:S6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="R2:S6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla2" displayName="Tabla2" ref="S2:T6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="S2:T6" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="affect" dataDxfId="7"/>
-    <tableColumn id="2" name="words" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="affect" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="words" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DABA79B-7459-4557-935F-A77CDA5E7441}" name="Tabla3" displayName="Tabla3" ref="V1:X5" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{60B5CF2F-35CE-48A5-AAC2-0F5E6D9DBCF6}" name="book"/>
+    <tableColumn id="2" xr3:uid="{E747F7A3-23FB-428D-BA32-3355087F5E0D}" name="Polaridad"/>
+    <tableColumn id="3" xr3:uid="{31EB76D6-E18A-4C43-BE56-46B3A4F47F21}" name="Confidence"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1072,11 +1118,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M18:M19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1094,9 +1140,10 @@
     <col min="11" max="11" width="11.88671875" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" customWidth="1"/>
     <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1145,12 +1192,24 @@
       <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1203,14 +1262,27 @@
         <f>Tabla1[[#This Row],[fear]]/Tabla1[[#This Row],[w_fear]]</f>
         <v>0.5961515151515151</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="4">
+        <f>Tabla1[[#This Row],[w_polaridad]]/Tabla1[[#This Row],[palabras]]</f>
+        <v>0.41630434782608694</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="V2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2">
+        <v>74</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1263,14 +1335,27 @@
         <f>Tabla1[[#This Row],[fear]]/Tabla1[[#This Row],[w_fear]]</f>
         <v>0.50274766355140188</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="Q3" s="4">
+        <f>Tabla1[[#This Row],[w_polaridad]]/Tabla1[[#This Row],[palabras]]</f>
+        <v>0.37233880778588807</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>1269</v>
       </c>
+      <c r="V3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3">
+        <v>74</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1323,14 +1408,27 @@
         <f>Tabla1[[#This Row],[fear]]/Tabla1[[#This Row],[w_fear]]</f>
         <v>0.56387826086956094</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="Q4" s="4">
+        <f>Tabla1[[#This Row],[w_polaridad]]/Tabla1[[#This Row],[palabras]]</f>
+        <v>0.21563206835888415</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>1299</v>
       </c>
+      <c r="V4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4">
+        <v>73</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1383,30 +1481,44 @@
         <f>Tabla1[[#This Row],[fear]]/Tabla1[[#This Row],[w_fear]]</f>
         <v>0.57752941176470585</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="Q5" s="4">
+        <f>Tabla1[[#This Row],[w_polaridad]]/Tabla1[[#This Row],[palabras]]</f>
+        <v>0.43496357960457854</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>1766</v>
       </c>
+      <c r="V5" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5">
+        <v>74</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="R6" s="1" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>1484</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>